--- a/Data/docs/TOI_sufficient_data.xlsx
+++ b/Data/docs/TOI_sufficient_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J240"/>
+  <dimension ref="A1:L240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,15 +471,25 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>pchembl_min</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pchembl_max</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Ratio</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Activity range</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>PDB_ligands</t>
         </is>
@@ -514,14 +524,20 @@
         <v>5061</v>
       </c>
       <c r="H2" t="n">
+        <v>3.036</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.543</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>3.036 to 11.0</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>163</v>
       </c>
     </row>
@@ -554,14 +570,20 @@
         <v>3636</v>
       </c>
       <c r="H3" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13.939</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.611</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>3.02 to 13.939</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>194</v>
       </c>
     </row>
@@ -594,14 +616,20 @@
         <v>3028</v>
       </c>
       <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.554</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>4.0 to 10.7</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>41</v>
       </c>
     </row>
@@ -634,14 +662,20 @@
         <v>1626</v>
       </c>
       <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11.585</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.748</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>4.0 to 11.585</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>17</v>
       </c>
     </row>
@@ -674,14 +708,20 @@
         <v>2011</v>
       </c>
       <c r="H6" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.608</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>3.74 to 10.83</t>
         </is>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -714,14 +754,20 @@
         <v>2780</v>
       </c>
       <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.438</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>4.0 to 11.0</t>
         </is>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>46</v>
       </c>
     </row>
@@ -754,14 +800,20 @@
         <v>2195</v>
       </c>
       <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.554</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>4.0 to 10.3</t>
         </is>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -794,14 +846,20 @@
         <v>2641</v>
       </c>
       <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.364</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>4.0 to 10.96</t>
         </is>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>28</v>
       </c>
     </row>
@@ -834,14 +892,20 @@
         <v>1563</v>
       </c>
       <c r="H10" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="J10" t="n">
         <v>0.597</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>4.06 to 10.46</t>
         </is>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>88</v>
       </c>
     </row>
@@ -874,14 +938,20 @@
         <v>810</v>
       </c>
       <c r="H11" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" t="n">
         <v>0.789</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>4.07 to 10.0</t>
         </is>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>30</v>
       </c>
     </row>
@@ -914,14 +984,20 @@
         <v>1284</v>
       </c>
       <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.651</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>4.0 to 10.1</t>
         </is>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>17</v>
       </c>
     </row>
@@ -954,14 +1030,20 @@
         <v>1443</v>
       </c>
       <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="J13" t="n">
         <v>0.601</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>4.0 to 10.1</t>
         </is>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>16</v>
       </c>
     </row>
@@ -994,14 +1076,20 @@
         <v>829</v>
       </c>
       <c r="H14" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="J14" t="n">
         <v>0.757</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>4.06 to 10.89</t>
         </is>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1034,14 +1122,20 @@
         <v>1680</v>
       </c>
       <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10.047</v>
+      </c>
+      <c r="J15" t="n">
         <v>0.503</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>4.0 to 10.047</t>
         </is>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1074,14 +1168,20 @@
         <v>559</v>
       </c>
       <c r="H16" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.832</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>4.03 to 10.6</t>
         </is>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1114,14 +1214,20 @@
         <v>993</v>
       </c>
       <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="J17" t="n">
         <v>0.699</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>4.0 to 10.52</t>
         </is>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1154,14 +1260,20 @@
         <v>2816</v>
       </c>
       <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="J18" t="n">
         <v>0.129</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>4.0 to 10.66</t>
         </is>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>21</v>
       </c>
     </row>
@@ -1194,14 +1306,20 @@
         <v>1735</v>
       </c>
       <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="J19" t="n">
         <v>0.436</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>4.0 to 10.89</t>
         </is>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>91</v>
       </c>
     </row>
@@ -1234,14 +1352,20 @@
         <v>589</v>
       </c>
       <c r="H20" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="J20" t="n">
         <v>0.802</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>4.24 to 10.15</t>
         </is>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1274,14 +1398,20 @@
         <v>836</v>
       </c>
       <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J21" t="n">
         <v>0.711</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>4.0 to 10.7</t>
         </is>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1314,14 +1444,20 @@
         <v>1083</v>
       </c>
       <c r="H22" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="J22" t="n">
         <v>0.625</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>3.07 to 10.1</t>
         </is>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>118</v>
       </c>
     </row>
@@ -1354,14 +1490,20 @@
         <v>1334</v>
       </c>
       <c r="H23" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="J23" t="n">
         <v>0.534</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>4.04 to 9.92</t>
         </is>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>58</v>
       </c>
     </row>
@@ -1394,14 +1536,20 @@
         <v>631</v>
       </c>
       <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="J24" t="n">
         <v>0.775</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>4.0 to 10.09</t>
         </is>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>87</v>
       </c>
     </row>
@@ -1434,14 +1582,20 @@
         <v>1844</v>
       </c>
       <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="J25" t="n">
         <v>0.341</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>4.0 to 10.52</t>
         </is>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>58</v>
       </c>
     </row>
@@ -1474,14 +1628,20 @@
         <v>1066</v>
       </c>
       <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>11</v>
+      </c>
+      <c r="J26" t="n">
         <v>0.612</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>4.0 to 11.0</t>
         </is>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>144</v>
       </c>
     </row>
@@ -1514,14 +1674,20 @@
         <v>1457</v>
       </c>
       <c r="H27" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J27" t="n">
         <v>0.433</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>4.0 to 9.8</t>
         </is>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1554,14 +1720,20 @@
         <v>651</v>
       </c>
       <c r="H28" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" t="n">
         <v>0.741</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>4.04 to 10.0</t>
         </is>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1594,14 +1766,20 @@
         <v>1322</v>
       </c>
       <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="J29" t="n">
         <v>0.472</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>4.0 to 9.96</t>
         </is>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>26</v>
       </c>
     </row>
@@ -1634,14 +1812,20 @@
         <v>1269</v>
       </c>
       <c r="H30" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="J30" t="n">
         <v>0.484</v>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>4.52 to 9.68</t>
         </is>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1674,14 +1858,20 @@
         <v>1438</v>
       </c>
       <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>11</v>
+      </c>
+      <c r="J31" t="n">
         <v>0.411</v>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>4.0 to 11.0</t>
         </is>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>172</v>
       </c>
     </row>
@@ -1714,14 +1904,20 @@
         <v>1588</v>
       </c>
       <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="J32" t="n">
         <v>0.341</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>4.0 to 9.7</t>
         </is>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1754,14 +1950,20 @@
         <v>1006</v>
       </c>
       <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11</v>
+      </c>
+      <c r="J33" t="n">
         <v>0.581</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>4.0 to 11.0</t>
         </is>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>388</v>
       </c>
     </row>
@@ -1794,14 +1996,20 @@
         <v>969</v>
       </c>
       <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J34" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>4.0 to 10.7</t>
         </is>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1834,14 +2042,20 @@
         <v>1111</v>
       </c>
       <c r="H35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>11</v>
+      </c>
+      <c r="J35" t="n">
         <v>0.492</v>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>4.1 to 11.0</t>
         </is>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1874,14 +2088,20 @@
         <v>502</v>
       </c>
       <c r="H36" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="I36" t="n">
+        <v>10</v>
+      </c>
+      <c r="J36" t="n">
         <v>0.755</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>4.21 to 10.0</t>
         </is>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1914,14 +2134,20 @@
         <v>669</v>
       </c>
       <c r="H37" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I37" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="J37" t="n">
         <v>0.667</v>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>3.7 to 10.08</t>
         </is>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1954,14 +2180,20 @@
         <v>1174</v>
       </c>
       <c r="H38" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="I38" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="J38" t="n">
         <v>0.411</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>4.04 to 9.85</t>
         </is>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1994,14 +2226,20 @@
         <v>939</v>
       </c>
       <c r="H39" t="n">
+        <v>4</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9.523</v>
+      </c>
+      <c r="J39" t="n">
         <v>0.514</v>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>4.0 to 9.523</t>
         </is>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>21</v>
       </c>
     </row>
@@ -2034,14 +2272,20 @@
         <v>1238</v>
       </c>
       <c r="H40" t="n">
+        <v>4</v>
+      </c>
+      <c r="I40" t="n">
+        <v>10</v>
+      </c>
+      <c r="J40" t="n">
         <v>0.353</v>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>4.0 to 10.0</t>
         </is>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>49</v>
       </c>
     </row>
@@ -2074,14 +2318,20 @@
         <v>1037</v>
       </c>
       <c r="H41" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="I41" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="J41" t="n">
         <v>0.457</v>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>3.03 to 9.37</t>
         </is>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2114,14 +2364,20 @@
         <v>1249</v>
       </c>
       <c r="H42" t="n">
+        <v>4</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="J42" t="n">
         <v>0.325</v>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>4.0 to 10.49</t>
         </is>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>24</v>
       </c>
     </row>
@@ -2154,14 +2410,20 @@
         <v>1055</v>
       </c>
       <c r="H43" t="n">
+        <v>4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="J43" t="n">
         <v>0.419</v>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>4.0 to 10.82</t>
         </is>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2194,14 +2456,20 @@
         <v>987</v>
       </c>
       <c r="H44" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J44" t="n">
         <v>0.455</v>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>4.03 to 9.4</t>
         </is>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2234,14 +2502,20 @@
         <v>505</v>
       </c>
       <c r="H45" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="I45" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="J45" t="n">
         <v>0.72</v>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>4.02 to 10.23</t>
         </is>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>84</v>
       </c>
     </row>
@@ -2274,14 +2548,20 @@
         <v>1672</v>
       </c>
       <c r="H46" t="n">
+        <v>4</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="J46" t="n">
         <v>0.06900000000000001</v>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>4.0 to 9.03</t>
         </is>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2314,14 +2594,20 @@
         <v>958</v>
       </c>
       <c r="H47" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="I47" t="n">
+        <v>10</v>
+      </c>
+      <c r="J47" t="n">
         <v>0.465</v>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>3.96 to 10.0</t>
         </is>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>30</v>
       </c>
     </row>
@@ -2354,14 +2640,20 @@
         <v>346</v>
       </c>
       <c r="H48" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="J48" t="n">
         <v>0.805</v>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>4.46 to 10.52</t>
         </is>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>26</v>
       </c>
     </row>
@@ -2394,14 +2686,20 @@
         <v>503</v>
       </c>
       <c r="H49" t="n">
+        <v>4</v>
+      </c>
+      <c r="I49" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J49" t="n">
         <v>0.715</v>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>4.0 to 10.7</t>
         </is>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>62</v>
       </c>
     </row>
@@ -2434,14 +2732,20 @@
         <v>843</v>
       </c>
       <c r="H50" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="I50" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="J50" t="n">
         <v>0.52</v>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>4.08 to 9.7</t>
         </is>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>36</v>
       </c>
     </row>
@@ -2474,14 +2778,20 @@
         <v>1496</v>
       </c>
       <c r="H51" t="n">
+        <v>4</v>
+      </c>
+      <c r="I51" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="J51" t="n">
         <v>0.093</v>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>4.0 to 9.23</t>
         </is>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2514,14 +2824,20 @@
         <v>532</v>
       </c>
       <c r="H52" t="n">
+        <v>4.045</v>
+      </c>
+      <c r="I52" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="J52" t="n">
         <v>0.672</v>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>4.045 to 10.19</t>
         </is>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2554,14 +2870,20 @@
         <v>488</v>
       </c>
       <c r="H53" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="I53" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="J53" t="n">
         <v>0.698</v>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>4.02 to 10.54</t>
         </is>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>57</v>
       </c>
     </row>
@@ -2594,14 +2916,20 @@
         <v>489</v>
       </c>
       <c r="H54" t="n">
+        <v>4</v>
+      </c>
+      <c r="I54" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="J54" t="n">
         <v>0.674</v>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>4.0 to 10.36</t>
         </is>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2634,14 +2962,20 @@
         <v>877</v>
       </c>
       <c r="H55" t="n">
+        <v>4</v>
+      </c>
+      <c r="I55" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="J55" t="n">
         <v>0.411</v>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>4.0 to 10.4</t>
         </is>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2674,14 +3008,20 @@
         <v>677</v>
       </c>
       <c r="H56" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="I56" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="J56" t="n">
         <v>0.542</v>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>3.51 to 10.4</t>
         </is>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2714,14 +3054,20 @@
         <v>574</v>
       </c>
       <c r="H57" t="n">
+        <v>4</v>
+      </c>
+      <c r="I57" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="J57" t="n">
         <v>0.611</v>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>4.0 to 10.32</t>
         </is>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>32</v>
       </c>
     </row>
@@ -2754,14 +3100,20 @@
         <v>711</v>
       </c>
       <c r="H58" t="n">
+        <v>4</v>
+      </c>
+      <c r="I58" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="J58" t="n">
         <v>0.512</v>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>4.0 to 10.22</t>
         </is>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>230</v>
       </c>
     </row>
@@ -2794,14 +3146,20 @@
         <v>1082</v>
       </c>
       <c r="H59" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="I59" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J59" t="n">
         <v>0.245</v>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>4.01 to 8.8</t>
         </is>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2834,14 +3192,20 @@
         <v>950</v>
       </c>
       <c r="H60" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="J60" t="n">
         <v>0.334</v>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>4.1 to 9.59</t>
         </is>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2874,14 +3238,20 @@
         <v>816</v>
       </c>
       <c r="H61" t="n">
+        <v>4</v>
+      </c>
+      <c r="I61" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="J61" t="n">
         <v>0.421</v>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>4.0 to 10.6</t>
         </is>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2914,14 +3284,20 @@
         <v>470</v>
       </c>
       <c r="H62" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="I62" t="n">
+        <v>11</v>
+      </c>
+      <c r="J62" t="n">
         <v>0.661</v>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>4.02 to 11.0</t>
         </is>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>55</v>
       </c>
     </row>
@@ -2954,14 +3330,20 @@
         <v>959</v>
       </c>
       <c r="H63" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="I63" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="J63" t="n">
         <v>0.304</v>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>3.28 to 10.32</t>
         </is>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>167</v>
       </c>
     </row>
@@ -2994,14 +3376,20 @@
         <v>387</v>
       </c>
       <c r="H64" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="I64" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J64" t="n">
         <v>0.719</v>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>4.02 to 10.9</t>
         </is>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3034,14 +3422,20 @@
         <v>734</v>
       </c>
       <c r="H65" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="I65" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="J65" t="n">
         <v>0.458</v>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>4.08 to 9.85</t>
         </is>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>11</v>
       </c>
     </row>
@@ -3074,14 +3468,20 @@
         <v>1010</v>
       </c>
       <c r="H66" t="n">
+        <v>4</v>
+      </c>
+      <c r="I66" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="J66" t="n">
         <v>0.231</v>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>4.0 to 10.3</t>
         </is>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3114,14 +3514,20 @@
         <v>1019</v>
       </c>
       <c r="H67" t="n">
+        <v>4</v>
+      </c>
+      <c r="I67" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="J67" t="n">
         <v>0.211</v>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>4.0 to 10.23</t>
         </is>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3154,14 +3560,20 @@
         <v>531</v>
       </c>
       <c r="H68" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="I68" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J68" t="n">
         <v>0.578</v>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>4.02 to 10.37</t>
         </is>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>261</v>
       </c>
     </row>
@@ -3194,14 +3606,20 @@
         <v>241</v>
       </c>
       <c r="H69" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="I69" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="J69" t="n">
         <v>0.8080000000000001</v>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>4.03 to 10.41</t>
         </is>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>79</v>
       </c>
     </row>
@@ -3234,14 +3652,20 @@
         <v>1003</v>
       </c>
       <c r="H70" t="n">
+        <v>4</v>
+      </c>
+      <c r="I70" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="J70" t="n">
         <v>0.197</v>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>4.0 to 9.57</t>
         </is>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3274,14 +3698,20 @@
         <v>1032</v>
       </c>
       <c r="H71" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="I71" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="J71" t="n">
         <v>0.162</v>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>4.06 to 9.52</t>
         </is>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3314,14 +3744,20 @@
         <v>703</v>
       </c>
       <c r="H72" t="n">
+        <v>4</v>
+      </c>
+      <c r="I72" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="J72" t="n">
         <v>0.418</v>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>4.0 to 10.15</t>
         </is>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3354,14 +3790,20 @@
         <v>225</v>
       </c>
       <c r="H73" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="I73" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="J73" t="n">
         <v>0.8129999999999999</v>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>4.26 to 9.54</t>
         </is>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3394,14 +3836,20 @@
         <v>642</v>
       </c>
       <c r="H74" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="I74" t="n">
+        <v>10</v>
+      </c>
+      <c r="J74" t="n">
         <v>0.454</v>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>3.31 to 10.0</t>
         </is>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3434,14 +3882,20 @@
         <v>504</v>
       </c>
       <c r="H75" t="n">
+        <v>4</v>
+      </c>
+      <c r="I75" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="J75" t="n">
         <v>0.5659999999999999</v>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>4.0 to 10.52</t>
         </is>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3474,14 +3928,20 @@
         <v>203</v>
       </c>
       <c r="H76" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="I76" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="J76" t="n">
         <v>0.823</v>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>4.11 to 9.52</t>
         </is>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3514,14 +3974,20 @@
         <v>381</v>
       </c>
       <c r="H77" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="I77" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="J77" t="n">
         <v>0.664</v>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>4.04 to 10.3</t>
         </is>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3554,14 +4020,20 @@
         <v>243</v>
       </c>
       <c r="H78" t="n">
+        <v>4</v>
+      </c>
+      <c r="I78" t="n">
+        <v>11</v>
+      </c>
+      <c r="J78" t="n">
         <v>0.782</v>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>4.0 to 11.0</t>
         </is>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3594,14 +4066,20 @@
         <v>937</v>
       </c>
       <c r="H79" t="n">
+        <v>4</v>
+      </c>
+      <c r="I79" t="n">
+        <v>9.523</v>
+      </c>
+      <c r="J79" t="n">
         <v>0.16</v>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>4.0 to 9.523</t>
         </is>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3634,14 +4112,20 @@
         <v>201</v>
       </c>
       <c r="H80" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="I80" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="J80" t="n">
         <v>0.8169999999999999</v>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>4.58 to 9.46</t>
         </is>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>30</v>
       </c>
     </row>
@@ -3674,14 +4158,20 @@
         <v>163</v>
       </c>
       <c r="H81" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I81" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="J81" t="n">
         <v>0.851</v>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>3.7 to 9.96</t>
         </is>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>17</v>
       </c>
     </row>
@@ -3714,14 +4204,20 @@
         <v>877</v>
       </c>
       <c r="H82" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="I82" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="J82" t="n">
         <v>0.17</v>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>4.19 to 9.06</t>
         </is>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3754,14 +4250,20 @@
         <v>265</v>
       </c>
       <c r="H83" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I83" t="n">
+        <v>9</v>
+      </c>
+      <c r="J83" t="n">
         <v>0.747</v>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>4.4 to 9.0</t>
         </is>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3794,14 +4296,20 @@
         <v>515</v>
       </c>
       <c r="H84" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="I84" t="n">
+        <v>10</v>
+      </c>
+      <c r="J84" t="n">
         <v>0.505</v>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>4.04 to 10.0</t>
         </is>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3834,14 +4342,20 @@
         <v>960</v>
       </c>
       <c r="H85" t="n">
+        <v>4</v>
+      </c>
+      <c r="I85" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="J85" t="n">
         <v>0.055</v>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>4.0 to 8.34</t>
         </is>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3874,14 +4388,20 @@
         <v>285</v>
       </c>
       <c r="H86" t="n">
+        <v>4</v>
+      </c>
+      <c r="I86" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="J86" t="n">
         <v>0.711</v>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>4.0 to 9.49</t>
         </is>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3914,14 +4434,20 @@
         <v>787</v>
       </c>
       <c r="H87" t="n">
+        <v>4</v>
+      </c>
+      <c r="I87" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J87" t="n">
         <v>0.202</v>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>4.0 to 8.9</t>
         </is>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3954,14 +4480,20 @@
         <v>242</v>
       </c>
       <c r="H88" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="I88" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="J88" t="n">
         <v>0.754</v>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>4.06 to 10.52</t>
         </is>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3994,14 +4526,20 @@
         <v>275</v>
       </c>
       <c r="H89" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="I89" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J89" t="n">
         <v>0.718</v>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>4.24 to 9.6</t>
         </is>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4034,14 +4572,20 @@
         <v>862</v>
       </c>
       <c r="H90" t="n">
+        <v>4</v>
+      </c>
+      <c r="I90" t="n">
+        <v>9</v>
+      </c>
+      <c r="J90" t="n">
         <v>0.11</v>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>4.0 to 9.0</t>
         </is>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4074,14 +4618,20 @@
         <v>802</v>
       </c>
       <c r="H91" t="n">
+        <v>4</v>
+      </c>
+      <c r="I91" t="n">
+        <v>9.523</v>
+      </c>
+      <c r="J91" t="n">
         <v>0.165</v>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>4.0 to 9.523</t>
         </is>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4114,14 +4664,20 @@
         <v>704</v>
       </c>
       <c r="H92" t="n">
+        <v>4</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="J92" t="n">
         <v>0.264</v>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>4.0 to 10.52</t>
         </is>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4154,14 +4710,20 @@
         <v>645</v>
       </c>
       <c r="H93" t="n">
+        <v>4</v>
+      </c>
+      <c r="I93" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="J93" t="n">
         <v>0.32</v>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>4.0 to 9.75</t>
         </is>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4194,14 +4756,20 @@
         <v>564</v>
       </c>
       <c r="H94" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="I94" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="J94" t="n">
         <v>0.361</v>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>4.04 to 9.97</t>
         </is>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>55</v>
       </c>
     </row>
@@ -4234,14 +4802,20 @@
         <v>615</v>
       </c>
       <c r="H95" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="I95" t="n">
+        <v>10</v>
+      </c>
+      <c r="J95" t="n">
         <v>0.285</v>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>4.725 to 10.0</t>
         </is>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4274,14 +4848,20 @@
         <v>270</v>
       </c>
       <c r="H96" t="n">
+        <v>4</v>
+      </c>
+      <c r="I96" t="n">
+        <v>10</v>
+      </c>
+      <c r="J96" t="n">
         <v>0.6850000000000001</v>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>4.0 to 10.0</t>
         </is>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>18</v>
       </c>
     </row>
@@ -4314,14 +4894,20 @@
         <v>332</v>
       </c>
       <c r="H97" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="I97" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="J97" t="n">
         <v>0.612</v>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>4.03 to 10.3</t>
         </is>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4354,14 +4940,20 @@
         <v>482</v>
       </c>
       <c r="H98" t="n">
+        <v>4</v>
+      </c>
+      <c r="I98" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="J98" t="n">
         <v>0.397</v>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>4.0 to 9.55</t>
         </is>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4394,14 +4986,20 @@
         <v>451</v>
       </c>
       <c r="H99" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="I99" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J99" t="n">
         <v>0.43</v>
       </c>
-      <c r="I99" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>3.31 to 8.7</t>
         </is>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>32</v>
       </c>
     </row>
@@ -4434,14 +5032,20 @@
         <v>293</v>
       </c>
       <c r="H100" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="I100" t="n">
+        <v>10</v>
+      </c>
+      <c r="J100" t="n">
         <v>0.62</v>
       </c>
-      <c r="I100" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>4.53 to 10.0</t>
         </is>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,14 +5078,20 @@
         <v>606</v>
       </c>
       <c r="H101" t="n">
+        <v>4</v>
+      </c>
+      <c r="I101" t="n">
+        <v>9.433999999999999</v>
+      </c>
+      <c r="J101" t="n">
         <v>0.213</v>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>4.0 to 9.434</t>
         </is>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4514,14 +5124,20 @@
         <v>532</v>
       </c>
       <c r="H102" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="I102" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="J102" t="n">
         <v>0.295</v>
       </c>
-      <c r="I102" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>3.97 to 10.96</t>
         </is>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4554,14 +5170,20 @@
         <v>445</v>
       </c>
       <c r="H103" t="n">
+        <v>4</v>
+      </c>
+      <c r="I103" t="n">
+        <v>10</v>
+      </c>
+      <c r="J103" t="n">
         <v>0.399</v>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>4.0 to 10.0</t>
         </is>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4594,14 +5216,20 @@
         <v>218</v>
       </c>
       <c r="H104" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="I104" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="J104" t="n">
         <v>0.704</v>
       </c>
-      <c r="I104" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>3.92 to 10.96</t>
         </is>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>26</v>
       </c>
     </row>
@@ -4634,14 +5262,20 @@
         <v>396</v>
       </c>
       <c r="H105" t="n">
+        <v>4</v>
+      </c>
+      <c r="I105" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="J105" t="n">
         <v>0.462</v>
       </c>
-      <c r="I105" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>4.0 to 10.05</t>
         </is>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4674,14 +5308,20 @@
         <v>395</v>
       </c>
       <c r="H106" t="n">
+        <v>4</v>
+      </c>
+      <c r="I106" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="J106" t="n">
         <v>0.462</v>
       </c>
-      <c r="I106" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>4.0 to 8.05</t>
         </is>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4714,14 +5354,20 @@
         <v>439</v>
       </c>
       <c r="H107" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="I107" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="J107" t="n">
         <v>0.401</v>
       </c>
-      <c r="I107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>4.11 to 9.85</t>
         </is>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>19</v>
       </c>
     </row>
@@ -4754,14 +5400,20 @@
         <v>488</v>
       </c>
       <c r="H108" t="n">
+        <v>4</v>
+      </c>
+      <c r="I108" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="J108" t="n">
         <v>0.333</v>
       </c>
-      <c r="I108" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>4.0 to 10.87</t>
         </is>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>13</v>
       </c>
     </row>
@@ -4794,14 +5446,20 @@
         <v>653</v>
       </c>
       <c r="H109" t="n">
+        <v>4</v>
+      </c>
+      <c r="I109" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="J109" t="n">
         <v>0.102</v>
       </c>
-      <c r="I109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>4.0 to 9.55</t>
         </is>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4834,14 +5492,20 @@
         <v>619</v>
       </c>
       <c r="H110" t="n">
+        <v>4</v>
+      </c>
+      <c r="I110" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="J110" t="n">
         <v>0.149</v>
       </c>
-      <c r="I110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>4.0 to 8.96</t>
         </is>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>29</v>
       </c>
     </row>
@@ -4874,14 +5538,20 @@
         <v>380</v>
       </c>
       <c r="H111" t="n">
+        <v>4</v>
+      </c>
+      <c r="I111" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="J111" t="n">
         <v>0.466</v>
       </c>
-      <c r="I111" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>4.0 to 10.07</t>
         </is>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4914,14 +5584,20 @@
         <v>342</v>
       </c>
       <c r="H112" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I112" t="n">
+        <v>10</v>
+      </c>
+      <c r="J112" t="n">
         <v>0.512</v>
       </c>
-      <c r="I112" t="inlineStr">
+      <c r="K112" t="inlineStr">
         <is>
           <t>4.4 to 10.0</t>
         </is>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4954,14 +5630,20 @@
         <v>618</v>
       </c>
       <c r="H113" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="I113" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="J113" t="n">
         <v>0.11</v>
       </c>
-      <c r="I113" t="inlineStr">
+      <c r="K113" t="inlineStr">
         <is>
           <t>4.02 to 8.23</t>
         </is>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4994,14 +5676,20 @@
         <v>476</v>
       </c>
       <c r="H114" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I114" t="n">
+        <v>9.095000000000001</v>
+      </c>
+      <c r="J114" t="n">
         <v>0.313</v>
       </c>
-      <c r="I114" t="inlineStr">
+      <c r="K114" t="inlineStr">
         <is>
           <t>4.05 to 9.095</t>
         </is>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>41</v>
       </c>
     </row>
@@ -5034,14 +5722,20 @@
         <v>439</v>
       </c>
       <c r="H115" t="n">
+        <v>4</v>
+      </c>
+      <c r="I115" t="n">
+        <v>9.585000000000001</v>
+      </c>
+      <c r="J115" t="n">
         <v>0.362</v>
       </c>
-      <c r="I115" t="inlineStr">
+      <c r="K115" t="inlineStr">
         <is>
           <t>4.0 to 9.585</t>
         </is>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5074,14 +5768,20 @@
         <v>511</v>
       </c>
       <c r="H116" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="I116" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J116" t="n">
         <v>0.237</v>
       </c>
-      <c r="I116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>4.92 to 10.7</t>
         </is>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5114,14 +5814,20 @@
         <v>324</v>
       </c>
       <c r="H117" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="I117" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="J117" t="n">
         <v>0.512</v>
       </c>
-      <c r="I117" t="inlineStr">
+      <c r="K117" t="inlineStr">
         <is>
           <t>4.64 to 10.1</t>
         </is>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>22</v>
       </c>
     </row>
@@ -5154,14 +5860,20 @@
         <v>377</v>
       </c>
       <c r="H118" t="n">
+        <v>4</v>
+      </c>
+      <c r="I118" t="n">
+        <v>9</v>
+      </c>
+      <c r="J118" t="n">
         <v>0.412</v>
       </c>
-      <c r="I118" t="inlineStr">
+      <c r="K118" t="inlineStr">
         <is>
           <t>4.0 to 9.0</t>
         </is>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>33</v>
       </c>
     </row>
@@ -5194,14 +5906,20 @@
         <v>290</v>
       </c>
       <c r="H119" t="n">
+        <v>4</v>
+      </c>
+      <c r="I119" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.521</v>
       </c>
-      <c r="I119" t="inlineStr">
+      <c r="K119" t="inlineStr">
         <is>
           <t>4.0 to 10.66</t>
         </is>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>16</v>
       </c>
     </row>
@@ -5234,14 +5952,20 @@
         <v>262</v>
       </c>
       <c r="H120" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="I120" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="I120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>3.49 to 9.28</t>
         </is>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>16</v>
       </c>
     </row>
@@ -5274,14 +5998,20 @@
         <v>144</v>
       </c>
       <c r="H121" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="I121" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="J121" t="n">
         <v>0.736</v>
       </c>
-      <c r="I121" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>3.07 to 10.29</t>
         </is>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>62</v>
       </c>
     </row>
@@ -5314,14 +6044,20 @@
         <v>216</v>
       </c>
       <c r="H122" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="I122" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="J122" t="n">
         <v>0.601</v>
       </c>
-      <c r="I122" t="inlineStr">
+      <c r="K122" t="inlineStr">
         <is>
           <t>3.845 to 10.92</t>
         </is>
       </c>
-      <c r="J122" t="n">
+      <c r="L122" t="n">
         <v>23</v>
       </c>
     </row>
@@ -5354,14 +6090,20 @@
         <v>347</v>
       </c>
       <c r="H123" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="I123" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="J123" t="n">
         <v>0.348</v>
       </c>
-      <c r="I123" t="inlineStr">
+      <c r="K123" t="inlineStr">
         <is>
           <t>3.92 to 9.28</t>
         </is>
       </c>
-      <c r="J123" t="n">
+      <c r="L123" t="n">
         <v>94</v>
       </c>
     </row>
@@ -5394,14 +6136,20 @@
         <v>487</v>
       </c>
       <c r="H124" t="n">
+        <v>4</v>
+      </c>
+      <c r="I124" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="J124" t="n">
         <v>0.065</v>
       </c>
-      <c r="I124" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
           <t>4.0 to 8.44</t>
         </is>
       </c>
-      <c r="J124" t="n">
+      <c r="L124" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5434,14 +6182,20 @@
         <v>203</v>
       </c>
       <c r="H125" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="I125" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J125" t="n">
         <v>0.604</v>
       </c>
-      <c r="I125" t="inlineStr">
+      <c r="K125" t="inlineStr">
         <is>
           <t>4.01 to 10.7</t>
         </is>
       </c>
-      <c r="J125" t="n">
+      <c r="L125" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5474,14 +6228,20 @@
         <v>141</v>
       </c>
       <c r="H126" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="I126" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="J126" t="n">
         <v>0.722</v>
       </c>
-      <c r="I126" t="inlineStr">
+      <c r="K126" t="inlineStr">
         <is>
           <t>4.17 to 10.4</t>
         </is>
       </c>
-      <c r="J126" t="n">
+      <c r="L126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5514,14 +6274,20 @@
         <v>286</v>
       </c>
       <c r="H127" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="J127" t="n">
         <v>0.423</v>
       </c>
-      <c r="I127" t="inlineStr">
+      <c r="K127" t="inlineStr">
         <is>
           <t>3.1 to 10.15</t>
         </is>
       </c>
-      <c r="J127" t="n">
+      <c r="L127" t="n">
         <v>17</v>
       </c>
     </row>
@@ -5554,14 +6320,20 @@
         <v>129</v>
       </c>
       <c r="H128" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="I128" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J128" t="n">
         <v>0.736</v>
       </c>
-      <c r="I128" t="inlineStr">
+      <c r="K128" t="inlineStr">
         <is>
           <t>4.52 to 10.7</t>
         </is>
       </c>
-      <c r="J128" t="n">
+      <c r="L128" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5594,14 +6366,20 @@
         <v>316</v>
       </c>
       <c r="H129" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I129" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="J129" t="n">
         <v>0.352</v>
       </c>
-      <c r="I129" t="inlineStr">
+      <c r="K129" t="inlineStr">
         <is>
           <t>3.65 to 9.52</t>
         </is>
       </c>
-      <c r="J129" t="n">
+      <c r="L129" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5634,14 +6412,20 @@
         <v>154</v>
       </c>
       <c r="H130" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="I130" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J130" t="n">
         <v>0.679</v>
       </c>
-      <c r="I130" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>4.12 to 9.4</t>
         </is>
       </c>
-      <c r="J130" t="n">
+      <c r="L130" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5674,14 +6458,20 @@
         <v>429</v>
       </c>
       <c r="H131" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I131" t="n">
+        <v>8.045999999999999</v>
+      </c>
+      <c r="J131" t="n">
         <v>0.093</v>
       </c>
-      <c r="I131" t="inlineStr">
+      <c r="K131" t="inlineStr">
         <is>
           <t>4.05 to 8.046</t>
         </is>
       </c>
-      <c r="J131" t="n">
+      <c r="L131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,14 +6504,20 @@
         <v>381</v>
       </c>
       <c r="H132" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="J132" t="n">
         <v>0.166</v>
       </c>
-      <c r="I132" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>4.1 to 10.22</t>
         </is>
       </c>
-      <c r="J132" t="n">
+      <c r="L132" t="n">
         <v>13</v>
       </c>
     </row>
@@ -5754,14 +6550,20 @@
         <v>256</v>
       </c>
       <c r="H133" t="n">
+        <v>4</v>
+      </c>
+      <c r="I133" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="J133" t="n">
         <v>0.437</v>
       </c>
-      <c r="I133" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>4.0 to 7.92</t>
         </is>
       </c>
-      <c r="J133" t="n">
+      <c r="L133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5794,14 +6596,20 @@
         <v>403</v>
       </c>
       <c r="H134" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="I134" t="n">
+        <v>8.255000000000001</v>
+      </c>
+      <c r="J134" t="n">
         <v>0.112</v>
       </c>
-      <c r="I134" t="inlineStr">
+      <c r="K134" t="inlineStr">
         <is>
           <t>4.01 to 8.255</t>
         </is>
       </c>
-      <c r="J134" t="n">
+      <c r="L134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5834,14 +6642,20 @@
         <v>422</v>
       </c>
       <c r="H135" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I135" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="J135" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="I135" t="inlineStr">
+      <c r="K135" t="inlineStr">
         <is>
           <t>4.6 to 8.31</t>
         </is>
       </c>
-      <c r="J135" t="n">
+      <c r="L135" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5874,14 +6688,20 @@
         <v>159</v>
       </c>
       <c r="H136" t="n">
+        <v>4.015</v>
+      </c>
+      <c r="I136" t="n">
+        <v>9</v>
+      </c>
+      <c r="J136" t="n">
         <v>0.639</v>
       </c>
-      <c r="I136" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
           <t>4.015 to 9.0</t>
         </is>
       </c>
-      <c r="J136" t="n">
+      <c r="L136" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5914,14 +6734,20 @@
         <v>357</v>
       </c>
       <c r="H137" t="n">
+        <v>4</v>
+      </c>
+      <c r="I137" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J137" t="n">
         <v>0.177</v>
       </c>
-      <c r="I137" t="inlineStr">
+      <c r="K137" t="inlineStr">
         <is>
           <t>4.0 to 7.8</t>
         </is>
       </c>
-      <c r="J137" t="n">
+      <c r="L137" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5954,14 +6780,20 @@
         <v>283</v>
       </c>
       <c r="H138" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="I138" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="J138" t="n">
         <v>0.339</v>
       </c>
-      <c r="I138" t="inlineStr">
+      <c r="K138" t="inlineStr">
         <is>
           <t>3.64 to 10.57</t>
         </is>
       </c>
-      <c r="J138" t="n">
+      <c r="L138" t="n">
         <v>43</v>
       </c>
     </row>
@@ -5994,14 +6826,20 @@
         <v>357</v>
       </c>
       <c r="H139" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="I139" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="J139" t="n">
         <v>0.162</v>
       </c>
-      <c r="I139" t="inlineStr">
+      <c r="K139" t="inlineStr">
         <is>
           <t>4.03 to 7.75</t>
         </is>
       </c>
-      <c r="J139" t="n">
+      <c r="L139" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6034,14 +6872,20 @@
         <v>150</v>
       </c>
       <c r="H140" t="n">
+        <v>4</v>
+      </c>
+      <c r="I140" t="n">
+        <v>11</v>
+      </c>
+      <c r="J140" t="n">
         <v>0.644</v>
       </c>
-      <c r="I140" t="inlineStr">
+      <c r="K140" t="inlineStr">
         <is>
           <t>4.0 to 11.0</t>
         </is>
       </c>
-      <c r="J140" t="n">
+      <c r="L140" t="n">
         <v>17</v>
       </c>
     </row>
@@ -6074,14 +6918,20 @@
         <v>124</v>
       </c>
       <c r="H141" t="n">
+        <v>4</v>
+      </c>
+      <c r="I141" t="n">
+        <v>9.569000000000001</v>
+      </c>
+      <c r="J141" t="n">
         <v>0.704</v>
       </c>
-      <c r="I141" t="inlineStr">
+      <c r="K141" t="inlineStr">
         <is>
           <t>4.0 to 9.569</t>
         </is>
       </c>
-      <c r="J141" t="n">
+      <c r="L141" t="n">
         <v>37</v>
       </c>
     </row>
@@ -6114,14 +6964,20 @@
         <v>160</v>
       </c>
       <c r="H142" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="I142" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="J142" t="n">
         <v>0.617</v>
       </c>
-      <c r="I142" t="inlineStr">
+      <c r="K142" t="inlineStr">
         <is>
           <t>4.31 to 10.99</t>
         </is>
       </c>
-      <c r="J142" t="n">
+      <c r="L142" t="n">
         <v>50</v>
       </c>
     </row>
@@ -6154,14 +7010,20 @@
         <v>228</v>
       </c>
       <c r="H143" t="n">
+        <v>4</v>
+      </c>
+      <c r="I143" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="J143" t="n">
         <v>0.443</v>
       </c>
-      <c r="I143" t="inlineStr">
+      <c r="K143" t="inlineStr">
         <is>
           <t>4.0 to 10.52</t>
         </is>
       </c>
-      <c r="J143" t="n">
+      <c r="L143" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6194,14 +7056,20 @@
         <v>287</v>
       </c>
       <c r="H144" t="n">
+        <v>4</v>
+      </c>
+      <c r="I144" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="J144" t="n">
         <v>0.297</v>
       </c>
-      <c r="I144" t="inlineStr">
+      <c r="K144" t="inlineStr">
         <is>
           <t>4.0 to 9.21</t>
         </is>
       </c>
-      <c r="J144" t="n">
+      <c r="L144" t="n">
         <v>98</v>
       </c>
     </row>
@@ -6234,14 +7102,20 @@
         <v>167</v>
       </c>
       <c r="H145" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="I145" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="J145" t="n">
         <v>0.582</v>
       </c>
-      <c r="I145" t="inlineStr">
+      <c r="K145" t="inlineStr">
         <is>
           <t>4.27 to 8.93</t>
         </is>
       </c>
-      <c r="J145" t="n">
+      <c r="L145" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6274,14 +7148,20 @@
         <v>213</v>
       </c>
       <c r="H146" t="n">
+        <v>4</v>
+      </c>
+      <c r="I146" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J146" t="n">
         <v>0.461</v>
       </c>
-      <c r="I146" t="inlineStr">
+      <c r="K146" t="inlineStr">
         <is>
           <t>4.0 to 8.7</t>
         </is>
       </c>
-      <c r="J146" t="n">
+      <c r="L146" t="n">
         <v>13</v>
       </c>
     </row>
@@ -6314,14 +7194,20 @@
         <v>256</v>
       </c>
       <c r="H147" t="n">
+        <v>4</v>
+      </c>
+      <c r="I147" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="J147" t="n">
         <v>0.352</v>
       </c>
-      <c r="I147" t="inlineStr">
+      <c r="K147" t="inlineStr">
         <is>
           <t>4.0 to 9.92</t>
         </is>
       </c>
-      <c r="J147" t="n">
+      <c r="L147" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6354,14 +7240,20 @@
         <v>177</v>
       </c>
       <c r="H148" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="I148" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="J148" t="n">
         <v>0.548</v>
       </c>
-      <c r="I148" t="inlineStr">
+      <c r="K148" t="inlineStr">
         <is>
           <t>4.02 to 8.47</t>
         </is>
       </c>
-      <c r="J148" t="n">
+      <c r="L148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6394,14 +7286,20 @@
         <v>309</v>
       </c>
       <c r="H149" t="n">
+        <v>4</v>
+      </c>
+      <c r="I149" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J149" t="n">
         <v>0.208</v>
       </c>
-      <c r="I149" t="inlineStr">
+      <c r="K149" t="inlineStr">
         <is>
           <t>4.0 to 8.92</t>
         </is>
       </c>
-      <c r="J149" t="n">
+      <c r="L149" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6434,14 +7332,20 @@
         <v>223</v>
       </c>
       <c r="H150" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="I150" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="J150" t="n">
         <v>0.418</v>
       </c>
-      <c r="I150" t="inlineStr">
+      <c r="K150" t="inlineStr">
         <is>
           <t>4.01 to 8.26</t>
         </is>
       </c>
-      <c r="J150" t="n">
+      <c r="L150" t="n">
         <v>13</v>
       </c>
     </row>
@@ -6474,14 +7378,20 @@
         <v>316</v>
       </c>
       <c r="H151" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="I151" t="n">
+        <v>9</v>
+      </c>
+      <c r="J151" t="n">
         <v>0.148</v>
       </c>
-      <c r="I151" t="inlineStr">
+      <c r="K151" t="inlineStr">
         <is>
           <t>4.04 to 9.0</t>
         </is>
       </c>
-      <c r="J151" t="n">
+      <c r="L151" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6514,14 +7424,20 @@
         <v>240</v>
       </c>
       <c r="H152" t="n">
+        <v>4</v>
+      </c>
+      <c r="I152" t="n">
+        <v>8.323</v>
+      </c>
+      <c r="J152" t="n">
         <v>0.351</v>
       </c>
-      <c r="I152" t="inlineStr">
+      <c r="K152" t="inlineStr">
         <is>
           <t>4.0 to 8.323</t>
         </is>
       </c>
-      <c r="J152" t="n">
+      <c r="L152" t="n">
         <v>18</v>
       </c>
     </row>
@@ -6554,14 +7470,20 @@
         <v>178</v>
       </c>
       <c r="H153" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="I153" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="J153" t="n">
         <v>0.507</v>
       </c>
-      <c r="I153" t="inlineStr">
+      <c r="K153" t="inlineStr">
         <is>
           <t>4.01 to 10.64</t>
         </is>
       </c>
-      <c r="J153" t="n">
+      <c r="L153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6594,14 +7516,20 @@
         <v>75</v>
       </c>
       <c r="H154" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="I154" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="J154" t="n">
         <v>0.792</v>
       </c>
-      <c r="I154" t="inlineStr">
+      <c r="K154" t="inlineStr">
         <is>
           <t>3.14 to 9.48</t>
         </is>
       </c>
-      <c r="J154" t="n">
+      <c r="L154" t="n">
         <v>33</v>
       </c>
     </row>
@@ -6634,14 +7562,20 @@
         <v>209</v>
       </c>
       <c r="H155" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I155" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="J155" t="n">
         <v>0.403</v>
       </c>
-      <c r="I155" t="inlineStr">
+      <c r="K155" t="inlineStr">
         <is>
           <t>4.3 to 8.15</t>
         </is>
       </c>
-      <c r="J155" t="n">
+      <c r="L155" t="n">
         <v>12</v>
       </c>
     </row>
@@ -6674,14 +7608,20 @@
         <v>247</v>
       </c>
       <c r="H156" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="I156" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J156" t="n">
         <v>0.292</v>
       </c>
-      <c r="I156" t="inlineStr">
+      <c r="K156" t="inlineStr">
         <is>
           <t>4.03 to 9.8</t>
         </is>
       </c>
-      <c r="J156" t="n">
+      <c r="L156" t="n">
         <v>30</v>
       </c>
     </row>
@@ -6714,14 +7654,20 @@
         <v>156</v>
       </c>
       <c r="H157" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I157" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="J157" t="n">
         <v>0.55</v>
       </c>
-      <c r="I157" t="inlineStr">
+      <c r="K157" t="inlineStr">
         <is>
           <t>4.05 to 10.46</t>
         </is>
       </c>
-      <c r="J157" t="n">
+      <c r="L157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6754,14 +7700,20 @@
         <v>261</v>
       </c>
       <c r="H158" t="n">
+        <v>4</v>
+      </c>
+      <c r="I158" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J158" t="n">
         <v>0.228</v>
       </c>
-      <c r="I158" t="inlineStr">
+      <c r="K158" t="inlineStr">
         <is>
           <t>4.0 to 9.6</t>
         </is>
       </c>
-      <c r="J158" t="n">
+      <c r="L158" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6794,14 +7746,20 @@
         <v>298</v>
       </c>
       <c r="H159" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="I159" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="J159" t="n">
         <v>0.105</v>
       </c>
-      <c r="I159" t="inlineStr">
+      <c r="K159" t="inlineStr">
         <is>
           <t>4.02 to 8.68</t>
         </is>
       </c>
-      <c r="J159" t="n">
+      <c r="L159" t="n">
         <v>16</v>
       </c>
     </row>
@@ -6834,14 +7792,20 @@
         <v>123</v>
       </c>
       <c r="H160" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="I160" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="J160" t="n">
         <v>0.63</v>
       </c>
-      <c r="I160" t="inlineStr">
+      <c r="K160" t="inlineStr">
         <is>
           <t>4.06 to 9.22</t>
         </is>
       </c>
-      <c r="J160" t="n">
+      <c r="L160" t="n">
         <v>21</v>
       </c>
     </row>
@@ -6874,14 +7838,20 @@
         <v>113</v>
       </c>
       <c r="H161" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I161" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="J161" t="n">
         <v>0.653</v>
       </c>
-      <c r="I161" t="inlineStr">
+      <c r="K161" t="inlineStr">
         <is>
           <t>4.35 to 10.52</t>
         </is>
       </c>
-      <c r="J161" t="n">
+      <c r="L161" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6914,14 +7884,20 @@
         <v>213</v>
       </c>
       <c r="H162" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="I162" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="J162" t="n">
         <v>0.339</v>
       </c>
-      <c r="I162" t="inlineStr">
+      <c r="K162" t="inlineStr">
         <is>
           <t>4.02 to 10.1</t>
         </is>
       </c>
-      <c r="J162" t="n">
+      <c r="L162" t="n">
         <v>27</v>
       </c>
     </row>
@@ -6954,14 +7930,20 @@
         <v>251</v>
       </c>
       <c r="H163" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="I163" t="n">
+        <v>9</v>
+      </c>
+      <c r="J163" t="n">
         <v>0.213</v>
       </c>
-      <c r="I163" t="inlineStr">
+      <c r="K163" t="inlineStr">
         <is>
           <t>4.04 to 9.0</t>
         </is>
       </c>
-      <c r="J163" t="n">
+      <c r="L163" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6994,14 +7976,20 @@
         <v>230</v>
       </c>
       <c r="H164" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="I164" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J164" t="n">
         <v>0.265</v>
       </c>
-      <c r="I164" t="inlineStr">
+      <c r="K164" t="inlineStr">
         <is>
           <t>4.01 to 9.4</t>
         </is>
       </c>
-      <c r="J164" t="n">
+      <c r="L164" t="n">
         <v>78</v>
       </c>
     </row>
@@ -7034,14 +8022,20 @@
         <v>84</v>
       </c>
       <c r="H165" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I165" t="n">
+        <v>9</v>
+      </c>
+      <c r="J165" t="n">
         <v>0.726</v>
       </c>
-      <c r="I165" t="inlineStr">
+      <c r="K165" t="inlineStr">
         <is>
           <t>4.3 to 9.0</t>
         </is>
       </c>
-      <c r="J165" t="n">
+      <c r="L165" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7074,14 +8068,20 @@
         <v>100</v>
       </c>
       <c r="H166" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="I166" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="J166" t="n">
         <v>0.672</v>
       </c>
-      <c r="I166" t="inlineStr">
+      <c r="K166" t="inlineStr">
         <is>
           <t>4.49 to 9.3</t>
         </is>
       </c>
-      <c r="J166" t="n">
+      <c r="L166" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7114,14 +8114,20 @@
         <v>218</v>
       </c>
       <c r="H167" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="I167" t="n">
+        <v>10</v>
+      </c>
+      <c r="J167" t="n">
         <v>0.273</v>
       </c>
-      <c r="I167" t="inlineStr">
+      <c r="K167" t="inlineStr">
         <is>
           <t>4.08 to 10.0</t>
         </is>
       </c>
-      <c r="J167" t="n">
+      <c r="L167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7154,14 +8160,20 @@
         <v>133</v>
       </c>
       <c r="H168" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="I168" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J168" t="n">
         <v>0.551</v>
       </c>
-      <c r="I168" t="inlineStr">
+      <c r="K168" t="inlineStr">
         <is>
           <t>3.81 to 9.4</t>
         </is>
       </c>
-      <c r="J168" t="n">
+      <c r="L168" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7194,14 +8206,20 @@
         <v>72</v>
       </c>
       <c r="H169" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="I169" t="n">
+        <v>10.133</v>
+      </c>
+      <c r="J169" t="n">
         <v>0.756</v>
       </c>
-      <c r="I169" t="inlineStr">
+      <c r="K169" t="inlineStr">
         <is>
           <t>4.02 to 10.133</t>
         </is>
       </c>
-      <c r="J169" t="n">
+      <c r="L169" t="n">
         <v>40</v>
       </c>
     </row>
@@ -7234,14 +8252,20 @@
         <v>162</v>
       </c>
       <c r="H170" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="I170" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="J170" t="n">
         <v>0.434</v>
       </c>
-      <c r="I170" t="inlineStr">
+      <c r="K170" t="inlineStr">
         <is>
           <t>3.12 to 9.52</t>
         </is>
       </c>
-      <c r="J170" t="n">
+      <c r="L170" t="n">
         <v>44</v>
       </c>
     </row>
@@ -7274,14 +8298,20 @@
         <v>105</v>
       </c>
       <c r="H171" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="I171" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="J171" t="n">
         <v>0.629</v>
       </c>
-      <c r="I171" t="inlineStr">
+      <c r="K171" t="inlineStr">
         <is>
           <t>4.24 to 9.85</t>
         </is>
       </c>
-      <c r="J171" t="n">
+      <c r="L171" t="n">
         <v>21</v>
       </c>
     </row>
@@ -7314,14 +8344,20 @@
         <v>90</v>
       </c>
       <c r="H172" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="I172" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="J172" t="n">
         <v>0.6820000000000001</v>
       </c>
-      <c r="I172" t="inlineStr">
+      <c r="K172" t="inlineStr">
         <is>
           <t>4.16 to 9.74</t>
         </is>
       </c>
-      <c r="J172" t="n">
+      <c r="L172" t="n">
         <v>9</v>
       </c>
     </row>
@@ -7354,14 +8390,20 @@
         <v>127</v>
       </c>
       <c r="H173" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="I173" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J173" t="n">
         <v>0.523</v>
       </c>
-      <c r="I173" t="inlineStr">
+      <c r="K173" t="inlineStr">
         <is>
           <t>4.82 to 8.7</t>
         </is>
       </c>
-      <c r="J173" t="n">
+      <c r="L173" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7394,14 +8436,20 @@
         <v>169</v>
       </c>
       <c r="H174" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="I174" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="J174" t="n">
         <v>0.36</v>
       </c>
-      <c r="I174" t="inlineStr">
+      <c r="K174" t="inlineStr">
         <is>
           <t>4.17 to 10.54</t>
         </is>
       </c>
-      <c r="J174" t="n">
+      <c r="L174" t="n">
         <v>42</v>
       </c>
     </row>
@@ -7434,14 +8482,20 @@
         <v>197</v>
       </c>
       <c r="H175" t="n">
+        <v>4</v>
+      </c>
+      <c r="I175" t="n">
+        <v>9</v>
+      </c>
+      <c r="J175" t="n">
         <v>0.233</v>
       </c>
-      <c r="I175" t="inlineStr">
+      <c r="K175" t="inlineStr">
         <is>
           <t>4.0 to 9.0</t>
         </is>
       </c>
-      <c r="J175" t="n">
+      <c r="L175" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7474,14 +8528,20 @@
         <v>207</v>
       </c>
       <c r="H176" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="I176" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="J176" t="n">
         <v>0.191</v>
       </c>
-      <c r="I176" t="inlineStr">
+      <c r="K176" t="inlineStr">
         <is>
           <t>4.13 to 8.28</t>
         </is>
       </c>
-      <c r="J176" t="n">
+      <c r="L176" t="n">
         <v>9</v>
       </c>
     </row>
@@ -7514,14 +8574,20 @@
         <v>199</v>
       </c>
       <c r="H177" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I177" t="n">
+        <v>10</v>
+      </c>
+      <c r="J177" t="n">
         <v>0.223</v>
       </c>
-      <c r="I177" t="inlineStr">
+      <c r="K177" t="inlineStr">
         <is>
           <t>4.05 to 10.0</t>
         </is>
       </c>
-      <c r="J177" t="n">
+      <c r="L177" t="n">
         <v>211</v>
       </c>
     </row>
@@ -7554,14 +8620,20 @@
         <v>75</v>
       </c>
       <c r="H178" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="I178" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="J178" t="n">
         <v>0.706</v>
       </c>
-      <c r="I178" t="inlineStr">
+      <c r="K178" t="inlineStr">
         <is>
           <t>4.01 to 8.31</t>
         </is>
       </c>
-      <c r="J178" t="n">
+      <c r="L178" t="n">
         <v>52</v>
       </c>
     </row>
@@ -7594,14 +8666,20 @@
         <v>120</v>
       </c>
       <c r="H179" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="I179" t="n">
+        <v>9.445</v>
+      </c>
+      <c r="J179" t="n">
         <v>0.528</v>
       </c>
-      <c r="I179" t="inlineStr">
+      <c r="K179" t="inlineStr">
         <is>
           <t>4.02 to 9.445</t>
         </is>
       </c>
-      <c r="J179" t="n">
+      <c r="L179" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7634,14 +8712,20 @@
         <v>104</v>
       </c>
       <c r="H180" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="I180" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="J180" t="n">
         <v>0.589</v>
       </c>
-      <c r="I180" t="inlineStr">
+      <c r="K180" t="inlineStr">
         <is>
           <t>4.48 to 10.03</t>
         </is>
       </c>
-      <c r="J180" t="n">
+      <c r="L180" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7674,14 +8758,20 @@
         <v>142</v>
       </c>
       <c r="H181" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="I181" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="J181" t="n">
         <v>0.43</v>
       </c>
-      <c r="I181" t="inlineStr">
+      <c r="K181" t="inlineStr">
         <is>
           <t>4.02 to 9.3</t>
         </is>
       </c>
-      <c r="J181" t="n">
+      <c r="L181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7714,14 +8804,20 @@
         <v>134</v>
       </c>
       <c r="H182" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="I182" t="n">
+        <v>8.824</v>
+      </c>
+      <c r="J182" t="n">
         <v>0.446</v>
       </c>
-      <c r="I182" t="inlineStr">
+      <c r="K182" t="inlineStr">
         <is>
           <t>4.44 to 8.824</t>
         </is>
       </c>
-      <c r="J182" t="n">
+      <c r="L182" t="n">
         <v>23</v>
       </c>
     </row>
@@ -7754,14 +8850,20 @@
         <v>133</v>
       </c>
       <c r="H183" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="I183" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J183" t="n">
         <v>0.45</v>
       </c>
-      <c r="I183" t="inlineStr">
+      <c r="K183" t="inlineStr">
         <is>
           <t>4.04 to 8.1</t>
         </is>
       </c>
-      <c r="J183" t="n">
+      <c r="L183" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7794,14 +8896,20 @@
         <v>174</v>
       </c>
       <c r="H184" t="n">
+        <v>4</v>
+      </c>
+      <c r="I184" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J184" t="n">
         <v>0.269</v>
       </c>
-      <c r="I184" t="inlineStr">
+      <c r="K184" t="inlineStr">
         <is>
           <t>4.0 to 8.92</t>
         </is>
       </c>
-      <c r="J184" t="n">
+      <c r="L184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7834,14 +8942,20 @@
         <v>146</v>
       </c>
       <c r="H185" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="I185" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="J185" t="n">
         <v>0.379</v>
       </c>
-      <c r="I185" t="inlineStr">
+      <c r="K185" t="inlineStr">
         <is>
           <t>4.22 to 9.7</t>
         </is>
       </c>
-      <c r="J185" t="n">
+      <c r="L185" t="n">
         <v>117</v>
       </c>
     </row>
@@ -7874,14 +8988,20 @@
         <v>78</v>
       </c>
       <c r="H186" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="I186" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="J186" t="n">
         <v>0.661</v>
       </c>
-      <c r="I186" t="inlineStr">
+      <c r="K186" t="inlineStr">
         <is>
           <t>4.08 to 10.82</t>
         </is>
       </c>
-      <c r="J186" t="n">
+      <c r="L186" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7914,14 +9034,20 @@
         <v>127</v>
       </c>
       <c r="H187" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="I187" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="J187" t="n">
         <v>0.445</v>
       </c>
-      <c r="I187" t="inlineStr">
+      <c r="K187" t="inlineStr">
         <is>
           <t>4.07 to 10.39</t>
         </is>
       </c>
-      <c r="J187" t="n">
+      <c r="L187" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7954,14 +9080,20 @@
         <v>164</v>
       </c>
       <c r="H188" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="I188" t="n">
+        <v>9.435</v>
+      </c>
+      <c r="J188" t="n">
         <v>0.268</v>
       </c>
-      <c r="I188" t="inlineStr">
+      <c r="K188" t="inlineStr">
         <is>
           <t>3.02 to 9.435</t>
         </is>
       </c>
-      <c r="J188" t="n">
+      <c r="L188" t="n">
         <v>47</v>
       </c>
     </row>
@@ -7994,14 +9126,20 @@
         <v>95</v>
       </c>
       <c r="H189" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="J189" t="n">
         <v>0.576</v>
       </c>
-      <c r="I189" t="inlineStr">
+      <c r="K189" t="inlineStr">
         <is>
           <t>4.1 to 9.52</t>
         </is>
       </c>
-      <c r="J189" t="n">
+      <c r="L189" t="n">
         <v>6</v>
       </c>
     </row>
@@ -8034,14 +9172,20 @@
         <v>74</v>
       </c>
       <c r="H190" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="I190" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="J190" t="n">
         <v>0.668</v>
       </c>
-      <c r="I190" t="inlineStr">
+      <c r="K190" t="inlineStr">
         <is>
           <t>4.12 to 8.3</t>
         </is>
       </c>
-      <c r="J190" t="n">
+      <c r="L190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8074,14 +9218,20 @@
         <v>83</v>
       </c>
       <c r="H191" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="I191" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J191" t="n">
         <v>0.621</v>
       </c>
-      <c r="I191" t="inlineStr">
+      <c r="K191" t="inlineStr">
         <is>
           <t>4.12 to 10.8</t>
         </is>
       </c>
-      <c r="J191" t="n">
+      <c r="L191" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8114,14 +9264,20 @@
         <v>90</v>
       </c>
       <c r="H192" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="I192" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J192" t="n">
         <v>0.585</v>
       </c>
-      <c r="I192" t="inlineStr">
+      <c r="K192" t="inlineStr">
         <is>
           <t>4.16 to 9.4</t>
         </is>
       </c>
-      <c r="J192" t="n">
+      <c r="L192" t="n">
         <v>11</v>
       </c>
     </row>
@@ -8154,14 +9310,20 @@
         <v>172</v>
       </c>
       <c r="H193" t="n">
+        <v>4</v>
+      </c>
+      <c r="I193" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J193" t="n">
         <v>0.2</v>
       </c>
-      <c r="I193" t="inlineStr">
+      <c r="K193" t="inlineStr">
         <is>
           <t>4.0 to 8.4</t>
         </is>
       </c>
-      <c r="J193" t="n">
+      <c r="L193" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8194,14 +9356,20 @@
         <v>125</v>
       </c>
       <c r="H194" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="I194" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="J194" t="n">
         <v>0.419</v>
       </c>
-      <c r="I194" t="inlineStr">
+      <c r="K194" t="inlineStr">
         <is>
           <t>4.09 to 8.85</t>
         </is>
       </c>
-      <c r="J194" t="n">
+      <c r="L194" t="n">
         <v>29</v>
       </c>
     </row>
@@ -8234,14 +9402,20 @@
         <v>151</v>
       </c>
       <c r="H195" t="n">
+        <v>4</v>
+      </c>
+      <c r="I195" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J195" t="n">
         <v>0.294</v>
       </c>
-      <c r="I195" t="inlineStr">
+      <c r="K195" t="inlineStr">
         <is>
           <t>4.0 to 9.4</t>
         </is>
       </c>
-      <c r="J195" t="n">
+      <c r="L195" t="n">
         <v>31</v>
       </c>
     </row>
@@ -8274,14 +9448,20 @@
         <v>69</v>
       </c>
       <c r="H196" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I196" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="J196" t="n">
         <v>0.675</v>
       </c>
-      <c r="I196" t="inlineStr">
+      <c r="K196" t="inlineStr">
         <is>
           <t>4.05 to 10.1</t>
         </is>
       </c>
-      <c r="J196" t="n">
+      <c r="L196" t="n">
         <v>13</v>
       </c>
     </row>
@@ -8314,14 +9494,20 @@
         <v>116</v>
       </c>
       <c r="H197" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I197" t="n">
+        <v>8.335000000000001</v>
+      </c>
+      <c r="J197" t="n">
         <v>0.437</v>
       </c>
-      <c r="I197" t="inlineStr">
+      <c r="K197" t="inlineStr">
         <is>
           <t>4.05 to 8.335</t>
         </is>
       </c>
-      <c r="J197" t="n">
+      <c r="L197" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8354,14 +9540,20 @@
         <v>88</v>
       </c>
       <c r="H198" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="I198" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="J198" t="n">
         <v>0.571</v>
       </c>
-      <c r="I198" t="inlineStr">
+      <c r="K198" t="inlineStr">
         <is>
           <t>4.29 to 10.15</t>
         </is>
       </c>
-      <c r="J198" t="n">
+      <c r="L198" t="n">
         <v>24</v>
       </c>
     </row>
@@ -8394,14 +9586,20 @@
         <v>137</v>
       </c>
       <c r="H199" t="n">
+        <v>4</v>
+      </c>
+      <c r="I199" t="n">
+        <v>9</v>
+      </c>
+      <c r="J199" t="n">
         <v>0.328</v>
       </c>
-      <c r="I199" t="inlineStr">
+      <c r="K199" t="inlineStr">
         <is>
           <t>4.0 to 9.0</t>
         </is>
       </c>
-      <c r="J199" t="n">
+      <c r="L199" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8434,14 +9632,20 @@
         <v>68</v>
       </c>
       <c r="H200" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I200" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="J200" t="n">
         <v>0.663</v>
       </c>
-      <c r="I200" t="inlineStr">
+      <c r="K200" t="inlineStr">
         <is>
           <t>4.4 to 10.3</t>
         </is>
       </c>
-      <c r="J200" t="n">
+      <c r="L200" t="n">
         <v>9</v>
       </c>
     </row>
@@ -8474,14 +9678,20 @@
         <v>45</v>
       </c>
       <c r="H201" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="I201" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="J201" t="n">
         <v>0.766</v>
       </c>
-      <c r="I201" t="inlineStr">
+      <c r="K201" t="inlineStr">
         <is>
           <t>4.52 to 8.77</t>
         </is>
       </c>
-      <c r="J201" t="n">
+      <c r="L201" t="n">
         <v>9</v>
       </c>
     </row>
@@ -8514,14 +9724,20 @@
         <v>123</v>
       </c>
       <c r="H202" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="I202" t="n">
+        <v>10</v>
+      </c>
+      <c r="J202" t="n">
         <v>0.342</v>
       </c>
-      <c r="I202" t="inlineStr">
+      <c r="K202" t="inlineStr">
         <is>
           <t>4.66 to 10.0</t>
         </is>
       </c>
-      <c r="J202" t="n">
+      <c r="L202" t="n">
         <v>3</v>
       </c>
     </row>
@@ -8554,14 +9770,20 @@
         <v>103</v>
       </c>
       <c r="H203" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="I203" t="n">
+        <v>9.034000000000001</v>
+      </c>
+      <c r="J203" t="n">
         <v>0.434</v>
       </c>
-      <c r="I203" t="inlineStr">
+      <c r="K203" t="inlineStr">
         <is>
           <t>4.28 to 9.034</t>
         </is>
       </c>
-      <c r="J203" t="n">
+      <c r="L203" t="n">
         <v>19</v>
       </c>
     </row>
@@ -8594,14 +9816,20 @@
         <v>59</v>
       </c>
       <c r="H204" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I204" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J204" t="n">
         <v>0.676</v>
       </c>
-      <c r="I204" t="inlineStr">
+      <c r="K204" t="inlineStr">
         <is>
           <t>4.05 to 8.8</t>
         </is>
       </c>
-      <c r="J204" t="n">
+      <c r="L204" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8634,14 +9862,20 @@
         <v>81</v>
       </c>
       <c r="H205" t="n">
+        <v>4</v>
+      </c>
+      <c r="I205" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="J205" t="n">
         <v>0.526</v>
       </c>
-      <c r="I205" t="inlineStr">
+      <c r="K205" t="inlineStr">
         <is>
           <t>4.0 to 8.52</t>
         </is>
       </c>
-      <c r="J205" t="n">
+      <c r="L205" t="n">
         <v>7</v>
       </c>
     </row>
@@ -8674,14 +9908,20 @@
         <v>121</v>
       </c>
       <c r="H206" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="I206" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="J206" t="n">
         <v>0.275</v>
       </c>
-      <c r="I206" t="inlineStr">
+      <c r="K206" t="inlineStr">
         <is>
           <t>3.47 to 7.85</t>
         </is>
       </c>
-      <c r="J206" t="n">
+      <c r="L206" t="n">
         <v>24</v>
       </c>
     </row>
@@ -8714,14 +9954,20 @@
         <v>99</v>
       </c>
       <c r="H207" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="I207" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="J207" t="n">
         <v>0.404</v>
       </c>
-      <c r="I207" t="inlineStr">
+      <c r="K207" t="inlineStr">
         <is>
           <t>4.01 to 8.99</t>
         </is>
       </c>
-      <c r="J207" t="n">
+      <c r="L207" t="n">
         <v>14</v>
       </c>
     </row>
@@ -8754,14 +10000,20 @@
         <v>90</v>
       </c>
       <c r="H208" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="I208" t="n">
+        <v>9</v>
+      </c>
+      <c r="J208" t="n">
         <v>0.444</v>
       </c>
-      <c r="I208" t="inlineStr">
+      <c r="K208" t="inlineStr">
         <is>
           <t>4.26 to 9.0</t>
         </is>
       </c>
-      <c r="J208" t="n">
+      <c r="L208" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8794,14 +10046,20 @@
         <v>78</v>
       </c>
       <c r="H209" t="n">
+        <v>4.523</v>
+      </c>
+      <c r="I209" t="n">
+        <v>9.164999999999999</v>
+      </c>
+      <c r="J209" t="n">
         <v>0.506</v>
       </c>
-      <c r="I209" t="inlineStr">
+      <c r="K209" t="inlineStr">
         <is>
           <t>4.523 to 9.165</t>
         </is>
       </c>
-      <c r="J209" t="n">
+      <c r="L209" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8834,14 +10092,20 @@
         <v>112</v>
       </c>
       <c r="H210" t="n">
+        <v>4</v>
+      </c>
+      <c r="I210" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="J210" t="n">
         <v>0.277</v>
       </c>
-      <c r="I210" t="inlineStr">
+      <c r="K210" t="inlineStr">
         <is>
           <t>4.0 to 7.44</t>
         </is>
       </c>
-      <c r="J210" t="n">
+      <c r="L210" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8874,14 +10138,20 @@
         <v>105</v>
       </c>
       <c r="H211" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="I211" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="J211" t="n">
         <v>0.323</v>
       </c>
-      <c r="I211" t="inlineStr">
+      <c r="K211" t="inlineStr">
         <is>
           <t>3.61 to 9.96</t>
         </is>
       </c>
-      <c r="J211" t="n">
+      <c r="L211" t="n">
         <v>27</v>
       </c>
     </row>
@@ -8914,14 +10184,20 @@
         <v>119</v>
       </c>
       <c r="H212" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="I212" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="J212" t="n">
         <v>0.232</v>
       </c>
-      <c r="I212" t="inlineStr">
+      <c r="K212" t="inlineStr">
         <is>
           <t>4.04 to 9.7</t>
         </is>
       </c>
-      <c r="J212" t="n">
+      <c r="L212" t="n">
         <v>202</v>
       </c>
     </row>
@@ -8954,14 +10230,20 @@
         <v>36</v>
       </c>
       <c r="H213" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="I213" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="J213" t="n">
         <v>0.763</v>
       </c>
-      <c r="I213" t="inlineStr">
+      <c r="K213" t="inlineStr">
         <is>
           <t>4.28 to 9.1</t>
         </is>
       </c>
-      <c r="J213" t="n">
+      <c r="L213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8994,14 +10276,20 @@
         <v>62</v>
       </c>
       <c r="H214" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="I214" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="J214" t="n">
         <v>0.584</v>
       </c>
-      <c r="I214" t="inlineStr">
+      <c r="K214" t="inlineStr">
         <is>
           <t>4.01 to 8.75</t>
         </is>
       </c>
-      <c r="J214" t="n">
+      <c r="L214" t="n">
         <v>68</v>
       </c>
     </row>
@@ -9034,14 +10322,20 @@
         <v>34</v>
       </c>
       <c r="H215" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="I215" t="n">
+        <v>9</v>
+      </c>
+      <c r="J215" t="n">
         <v>0.767</v>
       </c>
-      <c r="I215" t="inlineStr">
+      <c r="K215" t="inlineStr">
         <is>
           <t>4.11 to 9.0</t>
         </is>
       </c>
-      <c r="J215" t="n">
+      <c r="L215" t="n">
         <v>41</v>
       </c>
     </row>
@@ -9074,14 +10368,20 @@
         <v>35</v>
       </c>
       <c r="H216" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="I216" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="J216" t="n">
         <v>0.755</v>
       </c>
-      <c r="I216" t="inlineStr">
+      <c r="K216" t="inlineStr">
         <is>
           <t>4.04 to 10.55</t>
         </is>
       </c>
-      <c r="J216" t="n">
+      <c r="L216" t="n">
         <v>29</v>
       </c>
     </row>
@@ -9114,14 +10414,20 @@
         <v>36</v>
       </c>
       <c r="H217" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="I217" t="n">
+        <v>10</v>
+      </c>
+      <c r="J217" t="n">
         <v>0.743</v>
       </c>
-      <c r="I217" t="inlineStr">
+      <c r="K217" t="inlineStr">
         <is>
           <t>3.39 to 10.0</t>
         </is>
       </c>
-      <c r="J217" t="n">
+      <c r="L217" t="n">
         <v>17</v>
       </c>
     </row>
@@ -9154,14 +10460,20 @@
         <v>98</v>
       </c>
       <c r="H218" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="I218" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="J218" t="n">
         <v>0.274</v>
       </c>
-      <c r="I218" t="inlineStr">
+      <c r="K218" t="inlineStr">
         <is>
           <t>4.11 to 8.72</t>
         </is>
       </c>
-      <c r="J218" t="n">
+      <c r="L218" t="n">
         <v>21</v>
       </c>
     </row>
@@ -9194,14 +10506,20 @@
         <v>62</v>
       </c>
       <c r="H219" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="I219" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="J219" t="n">
         <v>0.541</v>
       </c>
-      <c r="I219" t="inlineStr">
+      <c r="K219" t="inlineStr">
         <is>
           <t>4.08 to 9.52</t>
         </is>
       </c>
-      <c r="J219" t="n">
+      <c r="L219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9234,14 +10552,20 @@
         <v>68</v>
       </c>
       <c r="H220" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I220" t="n">
+        <v>9</v>
+      </c>
+      <c r="J220" t="n">
         <v>0.493</v>
       </c>
-      <c r="I220" t="inlineStr">
+      <c r="K220" t="inlineStr">
         <is>
           <t>3.3 to 9.0</t>
         </is>
       </c>
-      <c r="J220" t="n">
+      <c r="L220" t="n">
         <v>30</v>
       </c>
     </row>
@@ -9274,14 +10598,20 @@
         <v>69</v>
       </c>
       <c r="H221" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="I221" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="J221" t="n">
         <v>0.473</v>
       </c>
-      <c r="I221" t="inlineStr">
+      <c r="K221" t="inlineStr">
         <is>
           <t>4.34 to 8.3</t>
         </is>
       </c>
-      <c r="J221" t="n">
+      <c r="L221" t="n">
         <v>26</v>
       </c>
     </row>
@@ -9314,14 +10644,20 @@
         <v>59</v>
       </c>
       <c r="H222" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I222" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="J222" t="n">
         <v>0.543</v>
       </c>
-      <c r="I222" t="inlineStr">
+      <c r="K222" t="inlineStr">
         <is>
           <t>3.6 to 8.96</t>
         </is>
       </c>
-      <c r="J222" t="n">
+      <c r="L222" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9354,14 +10690,20 @@
         <v>60</v>
       </c>
       <c r="H223" t="n">
+        <v>5</v>
+      </c>
+      <c r="I223" t="n">
+        <v>8.481</v>
+      </c>
+      <c r="J223" t="n">
         <v>0.528</v>
       </c>
-      <c r="I223" t="inlineStr">
+      <c r="K223" t="inlineStr">
         <is>
           <t>5.0 to 8.481</t>
         </is>
       </c>
-      <c r="J223" t="n">
+      <c r="L223" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9394,14 +10736,20 @@
         <v>54</v>
       </c>
       <c r="H224" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="I224" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="J224" t="n">
         <v>0.5679999999999999</v>
       </c>
-      <c r="I224" t="inlineStr">
+      <c r="K224" t="inlineStr">
         <is>
           <t>4.07 to 9.96</t>
         </is>
       </c>
-      <c r="J224" t="n">
+      <c r="L224" t="n">
         <v>28</v>
       </c>
     </row>
@@ -9434,14 +10782,20 @@
         <v>46</v>
       </c>
       <c r="H225" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="I225" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J225" t="n">
         <v>0.623</v>
       </c>
-      <c r="I225" t="inlineStr">
+      <c r="K225" t="inlineStr">
         <is>
           <t>4.68 to 8.7</t>
         </is>
       </c>
-      <c r="J225" t="n">
+      <c r="L225" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9474,14 +10828,20 @@
         <v>87</v>
       </c>
       <c r="H226" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="I226" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="J226" t="n">
         <v>0.263</v>
       </c>
-      <c r="I226" t="inlineStr">
+      <c r="K226" t="inlineStr">
         <is>
           <t>4.01 to 8.68</t>
         </is>
       </c>
-      <c r="J226" t="n">
+      <c r="L226" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9514,14 +10874,20 @@
         <v>67</v>
       </c>
       <c r="H227" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="I227" t="n">
+        <v>7.985</v>
+      </c>
+      <c r="J227" t="n">
         <v>0.432</v>
       </c>
-      <c r="I227" t="inlineStr">
+      <c r="K227" t="inlineStr">
         <is>
           <t>4.52 to 7.985</t>
         </is>
       </c>
-      <c r="J227" t="n">
+      <c r="L227" t="n">
         <v>6</v>
       </c>
     </row>
@@ -9554,14 +10920,20 @@
         <v>56</v>
       </c>
       <c r="H228" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="I228" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J228" t="n">
         <v>0.525</v>
       </c>
-      <c r="I228" t="inlineStr">
+      <c r="K228" t="inlineStr">
         <is>
           <t>3.37 to 8.92</t>
         </is>
       </c>
-      <c r="J228" t="n">
+      <c r="L228" t="n">
         <v>8</v>
       </c>
     </row>
@@ -9594,14 +10966,20 @@
         <v>72</v>
       </c>
       <c r="H229" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="I229" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="J229" t="n">
         <v>0.345</v>
       </c>
-      <c r="I229" t="inlineStr">
+      <c r="K229" t="inlineStr">
         <is>
           <t>4.11 to 9.72</t>
         </is>
       </c>
-      <c r="J229" t="n">
+      <c r="L229" t="n">
         <v>10</v>
       </c>
     </row>
@@ -9634,14 +11012,20 @@
         <v>48</v>
       </c>
       <c r="H230" t="n">
+        <v>4.398</v>
+      </c>
+      <c r="I230" t="n">
+        <v>9.081</v>
+      </c>
+      <c r="J230" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="I230" t="inlineStr">
+      <c r="K230" t="inlineStr">
         <is>
           <t>4.398 to 9.081</t>
         </is>
       </c>
-      <c r="J230" t="n">
+      <c r="L230" t="n">
         <v>12</v>
       </c>
     </row>
@@ -9674,14 +11058,20 @@
         <v>69</v>
       </c>
       <c r="H231" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I231" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="J231" t="n">
         <v>0.361</v>
       </c>
-      <c r="I231" t="inlineStr">
+      <c r="K231" t="inlineStr">
         <is>
           <t>4.5 to 7.85</t>
         </is>
       </c>
-      <c r="J231" t="n">
+      <c r="L231" t="n">
         <v>9</v>
       </c>
     </row>
@@ -9714,14 +11104,20 @@
         <v>50</v>
       </c>
       <c r="H232" t="n">
+        <v>4</v>
+      </c>
+      <c r="I232" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="J232" t="n">
         <v>0.505</v>
       </c>
-      <c r="I232" t="inlineStr">
+      <c r="K232" t="inlineStr">
         <is>
           <t>4.0 to 8.64</t>
         </is>
       </c>
-      <c r="J232" t="n">
+      <c r="L232" t="n">
         <v>9</v>
       </c>
     </row>
@@ -9754,14 +11150,20 @@
         <v>31</v>
       </c>
       <c r="H233" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="I233" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="J233" t="n">
         <v>0.667</v>
       </c>
-      <c r="I233" t="inlineStr">
+      <c r="K233" t="inlineStr">
         <is>
           <t>4.32 to 9.74</t>
         </is>
       </c>
-      <c r="J233" t="n">
+      <c r="L233" t="n">
         <v>9</v>
       </c>
     </row>
@@ -9794,14 +11196,20 @@
         <v>58</v>
       </c>
       <c r="H234" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I234" t="n">
+        <v>9</v>
+      </c>
+      <c r="J234" t="n">
         <v>0.363</v>
       </c>
-      <c r="I234" t="inlineStr">
+      <c r="K234" t="inlineStr">
         <is>
           <t>4.3 to 9.0</t>
         </is>
       </c>
-      <c r="J234" t="n">
+      <c r="L234" t="n">
         <v>8</v>
       </c>
     </row>
@@ -9834,14 +11242,20 @@
         <v>43</v>
       </c>
       <c r="H235" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="I235" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="J235" t="n">
         <v>0.517</v>
       </c>
-      <c r="I235" t="inlineStr">
+      <c r="K235" t="inlineStr">
         <is>
           <t>4.28 to 8.05</t>
         </is>
       </c>
-      <c r="J235" t="n">
+      <c r="L235" t="n">
         <v>21</v>
       </c>
     </row>
@@ -9874,14 +11288,20 @@
         <v>38</v>
       </c>
       <c r="H236" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="I236" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="J236" t="n">
         <v>0.573</v>
       </c>
-      <c r="I236" t="inlineStr">
+      <c r="K236" t="inlineStr">
         <is>
           <t>4.66 to 9.92</t>
         </is>
       </c>
-      <c r="J236" t="n">
+      <c r="L236" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9914,14 +11334,20 @@
         <v>31</v>
       </c>
       <c r="H237" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I237" t="n">
+        <v>9.114000000000001</v>
+      </c>
+      <c r="J237" t="n">
         <v>0.575</v>
       </c>
-      <c r="I237" t="inlineStr">
+      <c r="K237" t="inlineStr">
         <is>
           <t>4.2 to 9.114</t>
         </is>
       </c>
-      <c r="J237" t="n">
+      <c r="L237" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9954,14 +11380,20 @@
         <v>41</v>
       </c>
       <c r="H238" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="I238" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="J238" t="n">
         <v>0.431</v>
       </c>
-      <c r="I238" t="inlineStr">
+      <c r="K238" t="inlineStr">
         <is>
           <t>4.21 to 9.66</t>
         </is>
       </c>
-      <c r="J238" t="n">
+      <c r="L238" t="n">
         <v>14</v>
       </c>
     </row>
@@ -9994,14 +11426,20 @@
         <v>34</v>
       </c>
       <c r="H239" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I239" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="J239" t="n">
         <v>0.514</v>
       </c>
-      <c r="I239" t="inlineStr">
+      <c r="K239" t="inlineStr">
         <is>
           <t>4.05 to 9.15</t>
         </is>
       </c>
-      <c r="J239" t="n">
+      <c r="L239" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10034,14 +11472,20 @@
         <v>31</v>
       </c>
       <c r="H240" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="I240" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="J240" t="n">
         <v>0.544</v>
       </c>
-      <c r="I240" t="inlineStr">
+      <c r="K240" t="inlineStr">
         <is>
           <t>4.52 to 10.54</t>
         </is>
       </c>
-      <c r="J240" t="n">
+      <c r="L240" t="n">
         <v>12</v>
       </c>
     </row>
